--- a/SuppXLS/Scen_RES_SHARE_50%_24_7.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_50%_24_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_FULL\SuppXLS\Policy_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EIT\materials\energy policy\final project\SuppXLS-20250612\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2FAE5B-B617-4B04-848A-288BA6E5BD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642B43F7-71C1-42DE-9021-8AAA0EDB940E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS_1" sheetId="11" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>Year</t>
   </si>
@@ -104,37 +104,37 @@
   <numFmts count="20">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
-    <numFmt numFmtId="174" formatCode="#,##0."/>
-    <numFmt numFmtId="175" formatCode="&quot;$&quot;#."/>
-    <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm"/>
-    <numFmt numFmtId="177" formatCode="#.00"/>
-    <numFmt numFmtId="178" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="180" formatCode="yyyy"/>
-    <numFmt numFmtId="181" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="185" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
+    <numFmt numFmtId="186" formatCode="#,##0."/>
+    <numFmt numFmtId="187" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="188" formatCode="m/d/yy\ h:mm"/>
+    <numFmt numFmtId="189" formatCode="#.00"/>
+    <numFmt numFmtId="190" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="191" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="192" formatCode="yyyy"/>
+    <numFmt numFmtId="193" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="107">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
@@ -392,7 +392,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -720,14 +720,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -748,7 +748,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
@@ -771,7 +771,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -819,7 +819,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1510,7 +1510,7 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1872,7 +1872,7 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="5" fillId="3" borderId="10">
+    <xf numFmtId="185" fontId="5" fillId="3" borderId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1938,15 +1938,15 @@
     <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="186" fontId="73" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="73" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="175" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="186" fontId="73" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="187" fontId="73" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1970,15 +1970,15 @@
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1992,17 +1992,17 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="189" fontId="73" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
@@ -2210,7 +2210,7 @@
     </xf>
     <xf numFmtId="40" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2653,13 +2653,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="190" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="192" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -2671,7 +2671,7 @@
     <xf numFmtId="17" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2799,12 +2799,12 @@
     <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="90" fillId="0" borderId="0">
+    <xf numFmtId="193" fontId="90" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2853,7 +2853,7 @@
     <xf numFmtId="0" fontId="7" fillId="42" borderId="19" xfId="1280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1280" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4441,33 +4441,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I6"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="2:9"/>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" ht="15">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1">
+    <row r="5" spans="2:9" ht="15" thickBot="1">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" ht="15" thickBot="1">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4504,12 +4504,127 @@
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2030</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" thickBot="1">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2035</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15" thickBot="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2040</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15" thickBot="1">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2045</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2050</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5">
         <v>0.5</v>
       </c>
     </row>
